--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_3_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_3_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6300000000001</v>
+        <v>22.31000000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.290957005378089e-16</v>
+        <v>1.526079758934923e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.79837445489947</v>
+        <v>45.36831230650822</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.09824000554123, 50.49850890425772]</t>
+          <t>[37.466832098729824, 53.26979251428662]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.717026615475503</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5157634224527339, 1.9182898084982725]</t>
+          <t>[1.2390265320464247, 1.591237119836273]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.32617405767976</v>
+        <v>56.73707021202283</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.537437371430784, 56.11491074392873]</t>
+          <t>[51.87308576318481, 61.60105466086085]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.4458258258259</v>
+        <v>17.28522522522526</v>
       </c>
       <c r="X2" t="n">
-        <v>15.72094094094101</v>
+        <v>16.65991991991995</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.17071071071078</v>
+        <v>17.91053053053057</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2900000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.290957005378089e-16</v>
+        <v>1.526079758934923e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.06763464724762</v>
+        <v>41.88242562644167</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.54963122588741, 58.58563806860782]</t>
+          <t>[32.19670492476608, 51.56814632811725]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.295658295415965</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.0943951023931966, 2.4969214884387334]</t>
+          <t>[1.9057108589343486, 2.408868841491273]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.8063771449836</v>
+        <v>55.52283530692178</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.92313694458676, 63.68961734538044]</t>
+          <t>[50.40783380331163, 60.63783681053194]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.78064064064077</v>
+        <v>15.27383383383396</v>
       </c>
       <c r="X3" t="n">
-        <v>14.03461461461474</v>
+        <v>14.34250250250262</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5266666666668</v>
+        <v>16.2051651651653</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_3_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_3_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.31000000000005</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.526079758934923e-16</v>
+        <v>1.159501853394419e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.36831230650822</v>
+        <v>46.71257646827078</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.466832098729824, 53.26979251428662]</t>
+          <t>[37.95219243802027, 55.472960498521296]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.415131825941349</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2390265320464247, 1.591237119836273]</t>
+          <t>[1.6918687163476553, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.73707021202283</v>
+        <v>56.50128218932013</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.87308576318481, 61.60105466086085]</t>
+          <t>[51.56297767679994, 61.43958670184032]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.28522522522526</v>
+        <v>16.1189789789791</v>
       </c>
       <c r="X2" t="n">
-        <v>16.65991991991995</v>
+        <v>15.38000000000011</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.91053053053057</v>
+        <v>16.85795795795809</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.526079758934923e-16</v>
+        <v>1.159501853394419e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>41.88242562644167</v>
+        <v>45.00563988316904</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[32.19670492476608, 51.56814632811725]</t>
+          <t>[36.21451705979536, 53.796762706542715]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.865174681370263e-14</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.865174681370263e-14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.157289850212811</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9057108589343486, 2.408868841491273]</t>
+          <t>[2.0943951023931966, 2.4969214884387334]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.52283530692178</v>
+        <v>50.5000370020433</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.40783380331163, 60.63783681053194]</t>
+          <t>[45.85600088537048, 55.14407311871612]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.27383383383396</v>
+        <v>14.78064064064077</v>
       </c>
       <c r="X3" t="n">
-        <v>14.34250250250262</v>
+        <v>14.03461461461474</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.2051651651653</v>
+        <v>15.5266666666668</v>
       </c>
     </row>
   </sheetData>
